--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 26,86</t>
+          <t>8,81; 27,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 28,22</t>
+          <t>6,47; 28,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 33,9</t>
+          <t>9,65; 33,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,17; 87,18</t>
+          <t>60,08; 88,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,24; 90,03</t>
+          <t>58,96; 89,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,78; 82,96</t>
+          <t>50,46; 83,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,22; 47,82</t>
+          <t>27,92; 47,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,6; 51,92</t>
+          <t>28,9; 52,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,23; 51,52</t>
+          <t>30,17; 52,05</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,18</t>
+          <t>4,58; 11,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,81</t>
+          <t>11,61; 21,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,29</t>
+          <t>6,48; 14,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,82; 92,94</t>
+          <t>80,71; 93,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,74; 65,02</t>
+          <t>48,61; 64,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,0; 73,11</t>
+          <t>59,87; 73,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 35,55</t>
+          <t>26,6; 35,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 36,92</t>
+          <t>27,31; 36,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,46; 38,3</t>
+          <t>28,97; 38,48</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,67</t>
+          <t>5,92; 11,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,5</t>
+          <t>9,47; 16,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,18</t>
+          <t>10,33; 17,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,35; 90,84</t>
+          <t>79,63; 90,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,03; 71,46</t>
+          <t>58,93; 71,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,53; 70,66</t>
+          <t>58,18; 69,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,41</t>
+          <t>25,99; 33,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,21; 37,65</t>
+          <t>30,02; 37,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,13</t>
+          <t>31,19; 38,56</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,87</t>
+          <t>2,95; 8,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,52</t>
+          <t>7,21; 15,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,42</t>
+          <t>5,23; 11,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,07; 85,9</t>
+          <t>72,25; 85,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,17; 75,29</t>
+          <t>61,12; 74,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,73; 70,02</t>
+          <t>56,06; 69,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,85; 30,17</t>
+          <t>21,86; 29,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 38,08</t>
+          <t>28,98; 38,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,1</t>
+          <t>24,89; 33,21</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,4</t>
+          <t>5,36; 11,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,13</t>
+          <t>8,18; 15,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,01</t>
+          <t>12,83; 20,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 86,23</t>
+          <t>74,26; 86,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 81,55</t>
+          <t>70,89; 81,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,2; 76,95</t>
+          <t>64,1; 77,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,04; 37,24</t>
+          <t>29,38; 37,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,51</t>
+          <t>34,5; 42,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,03</t>
+          <t>32,57; 41,03</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,66; 14,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,8; 14,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,86; 85,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,88; 71,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,84; 69,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,31; 32,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,77; 36,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,75; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 27,21</t>
+          <t>7,17; 26,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 28,49</t>
+          <t>7,82; 28,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 33,24</t>
+          <t>9,36; 33,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,08; 88,68</t>
+          <t>61,66; 87,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,96; 89,42</t>
+          <t>59,33; 92,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,46; 83,96</t>
+          <t>49,51; 83,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,92; 47,49</t>
+          <t>27,13; 46,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,9; 52,41</t>
+          <t>28,89; 51,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,17; 52,05</t>
+          <t>28,42; 52,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,06</t>
+          <t>4,58; 10,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 21,27</t>
+          <t>11,49; 20,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,27</t>
+          <t>6,58; 14,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,71; 93,71</t>
+          <t>80,14; 92,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,61; 64,38</t>
+          <t>49,17; 64,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,87; 73,71</t>
+          <t>59,57; 73,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,6; 35,92</t>
+          <t>26,8; 36,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 36,97</t>
+          <t>26,84; 37,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 38,48</t>
+          <t>28,84; 37,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,26</t>
+          <t>5,76; 11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 16,6</t>
+          <t>9,49; 16,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,55</t>
+          <t>9,94; 17,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,63; 90,73</t>
+          <t>79,16; 90,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 71,27</t>
+          <t>59,29; 71,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,18; 69,96</t>
+          <t>58,19; 70,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,99; 33,63</t>
+          <t>26,13; 33,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,02; 37,56</t>
+          <t>30,24; 37,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,56</t>
+          <t>30,97; 38,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,13</t>
+          <t>2,96; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,03</t>
+          <t>7,34; 15,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,55</t>
+          <t>5,44; 11,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,25; 85,71</t>
+          <t>71,49; 85,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,12; 74,33</t>
+          <t>61,75; 75,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,06; 69,89</t>
+          <t>55,44; 70,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,93</t>
+          <t>22,06; 30,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 38,34</t>
+          <t>28,95; 37,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,89; 33,21</t>
+          <t>25,03; 33,46</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,18</t>
+          <t>5,1; 10,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 15,56</t>
+          <t>8,29; 15,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,83; 20,25</t>
+          <t>12,75; 20,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,26; 86,26</t>
+          <t>74,46; 86,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,89; 81,53</t>
+          <t>71,19; 82,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,1; 77,59</t>
+          <t>64,36; 77,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,52</t>
+          <t>29,14; 37,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,5; 42,46</t>
+          <t>34,36; 42,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,57; 41,03</t>
+          <t>32,66; 40,96</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,29; 9,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,56</t>
+          <t>10,66; 14,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,44</t>
+          <t>10,69; 14,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,86; 85,86</t>
+          <t>79,82; 85,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,88; 71,28</t>
+          <t>65,09; 71,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,84; 69,56</t>
+          <t>62,95; 69,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,31; 32,35</t>
+          <t>28,28; 32,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,93</t>
+          <t>32,77; 36,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,75; 35,77</t>
+          <t>31,82; 35,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 26,91</t>
+          <t>8,7; 26,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 28,0</t>
+          <t>7,9; 28,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 33,83</t>
+          <t>10,62; 33,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,66; 87,01</t>
+          <t>60,17; 87,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,33; 92,4</t>
+          <t>59,24; 90,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,51; 83,43</t>
+          <t>49,78; 82,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 46,82</t>
+          <t>28,22; 47,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 51,74</t>
+          <t>29,6; 51,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,42; 52,03</t>
+          <t>29,23; 51,52</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,56</t>
+          <t>4,84; 11,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 20,45</t>
+          <t>11,71; 21,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,4</t>
+          <t>6,59; 14,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,14; 92,77</t>
+          <t>79,82; 92,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,17; 64,82</t>
+          <t>49,74; 65,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,57; 73,56</t>
+          <t>59,0; 73,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,8; 36,38</t>
+          <t>27,26; 35,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,84; 37,06</t>
+          <t>27,69; 36,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,8</t>
+          <t>28,46; 38,3</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,13</t>
+          <t>5,79; 11,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 16,28</t>
+          <t>9,46; 16,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 17,43</t>
+          <t>10,22; 17,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,16; 90,51</t>
+          <t>79,35; 90,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,29; 71,24</t>
+          <t>59,03; 71,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,19; 70,19</t>
+          <t>58,53; 70,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 33,45</t>
+          <t>25,63; 33,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 37,26</t>
+          <t>30,21; 37,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 38,66</t>
+          <t>30,82; 38,13</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,79</t>
+          <t>2,97; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,19</t>
+          <t>7,18; 15,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,57</t>
+          <t>5,38; 11,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,49; 85,85</t>
+          <t>72,07; 85,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,75; 75,04</t>
+          <t>61,17; 75,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,44; 70,09</t>
+          <t>55,73; 70,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 30,14</t>
+          <t>21,85; 30,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 37,95</t>
+          <t>28,97; 38,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,03; 33,46</t>
+          <t>24,76; 33,1</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,95</t>
+          <t>5,6; 11,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 15,27</t>
+          <t>8,0; 15,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 20,64</t>
+          <t>12,67; 20,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,46; 86,24</t>
+          <t>73,87; 86,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,19; 82,3</t>
+          <t>70,8; 81,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,36; 77,02</t>
+          <t>64,2; 76,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,14; 37,25</t>
+          <t>29,04; 37,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,36; 42,18</t>
+          <t>34,33; 42,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,66; 40,96</t>
+          <t>32,75; 41,03</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,02</t>
+          <t>6,25; 9,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,66</t>
+          <t>10,75; 14,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,35</t>
+          <t>10,76; 14,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,66</t>
+          <t>79,55; 85,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,09; 71,6</t>
+          <t>64,96; 71,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,95; 69,33</t>
+          <t>62,85; 69,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,28; 32,29</t>
+          <t>28,27; 32,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,97</t>
+          <t>32,8; 36,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,82; 35,97</t>
+          <t>31,73; 35,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>66,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>34,47%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 26,86</t>
+          <t>6,16; 12,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 28,22</t>
+          <t>11,72; 20,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 33,9</t>
+          <t>8,21; 15,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,17; 87,18</t>
+          <t>78,33; 89,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,24; 90,03</t>
+          <t>52,6; 67,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,78; 82,96</t>
+          <t>59,77; 73,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,22; 47,82</t>
+          <t>28,24; 37,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,6; 51,92</t>
+          <t>29,22; 37,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,23; 51,52</t>
+          <t>30,04; 38,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>65,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>64,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,18</t>
+          <t>5,79; 11,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,81</t>
+          <t>9,46; 16,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,29</t>
+          <t>10,22; 17,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,82; 92,94</t>
+          <t>79,35; 90,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,74; 65,02</t>
+          <t>59,03; 71,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,0; 73,11</t>
+          <t>58,53; 70,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 35,55</t>
+          <t>25,63; 33,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 36,92</t>
+          <t>30,21; 37,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,46; 38,3</t>
+          <t>30,82; 38,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>28,99%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,67</t>
+          <t>2,97; 7,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,5</t>
+          <t>7,18; 15,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,18</t>
+          <t>5,38; 11,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,35; 90,84</t>
+          <t>72,07; 85,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,03; 71,46</t>
+          <t>61,17; 75,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,53; 70,66</t>
+          <t>55,73; 70,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,41</t>
+          <t>21,85; 30,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,21; 37,65</t>
+          <t>28,97; 38,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,13</t>
+          <t>24,76; 33,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,25%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>36,79%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,87</t>
+          <t>5,6; 11,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,52</t>
+          <t>8,0; 15,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,42</t>
+          <t>12,67; 20,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,07; 85,9</t>
+          <t>73,87; 86,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,17; 75,29</t>
+          <t>70,8; 81,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,73; 70,02</t>
+          <t>64,2; 76,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,85; 30,17</t>
+          <t>29,04; 37,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 38,08</t>
+          <t>34,33; 42,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,1</t>
+          <t>32,75; 41,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>82,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,76%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>33,8%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,4</t>
+          <t>6,25; 9,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,13</t>
+          <t>10,75; 14,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,01</t>
+          <t>10,76; 14,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,87; 86,23</t>
+          <t>79,55; 85,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 81,55</t>
+          <t>64,96; 71,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,2; 76,95</t>
+          <t>62,85; 69,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,04; 37,24</t>
+          <t>28,27; 32,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,51</t>
+          <t>32,8; 36,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,03</t>
+          <t>31,73; 35,65</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,45%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>82,9%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>68,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>66,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>30,31%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>34,81%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>33,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 9,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,75; 14,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,76; 14,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>79,55; 85,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>64,96; 71,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>62,85; 69,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>28,27; 32,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>32,8; 36,85</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>31,73; 35,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P74B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,52</t>
+          <t>6,25; 12,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 20,47</t>
+          <t>12,11; 21,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,34</t>
+          <t>8,35; 15,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,33; 89,95</t>
+          <t>78,46; 90,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,6; 67,63</t>
+          <t>52,76; 67,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,77; 73,44</t>
+          <t>60,46; 73,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,24; 37,17</t>
+          <t>28,24; 36,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,22; 37,6</t>
+          <t>29,08; 38,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,04; 38,57</t>
+          <t>30,19; 38,81</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,67</t>
+          <t>5,7; 11,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,5</t>
+          <t>8,98; 16,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,18</t>
+          <t>10,15; 17,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,35; 90,84</t>
+          <t>79,93; 90,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,03; 71,46</t>
+          <t>59,31; 71,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,53; 70,66</t>
+          <t>58,17; 70,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 33,41</t>
+          <t>25,83; 33,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 37,65</t>
+          <t>30,37; 37,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,13</t>
+          <t>30,86; 38,35</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,87</t>
+          <t>2,87; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,52</t>
+          <t>6,65; 14,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,42</t>
+          <t>5,19; 11,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,07; 85,9</t>
+          <t>71,14; 85,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,17; 75,29</t>
+          <t>60,95; 75,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,73; 70,02</t>
+          <t>55,97; 69,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,85; 30,17</t>
+          <t>21,74; 29,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 38,08</t>
+          <t>28,65; 38,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,1</t>
+          <t>25,0; 33,14</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,4</t>
+          <t>5,45; 11,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,13</t>
+          <t>7,96; 15,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,01</t>
+          <t>12,84; 20,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,87; 86,23</t>
+          <t>74,25; 86,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,8; 81,55</t>
+          <t>71,16; 81,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,2; 76,95</t>
+          <t>63,92; 76,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 37,24</t>
+          <t>29,06; 37,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,51</t>
+          <t>34,1; 42,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,75; 41,03</t>
+          <t>32,53; 40,64</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,2; 9,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,81; 14,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,71; 14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,79; 85,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,75; 70,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,64; 69,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,34; 32,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,72; 36,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,87; 36,1</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su pareja percibe algún tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29015</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47831</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32544</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>123753</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>116757</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>135670</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>152768</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>164589</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>168214</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20322; 40768</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36402; 63289</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23793; 44379</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>113854; 130767</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102107; 130825</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>122649; 149077</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>132791; 172382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>143705; 189098</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>147299; 189382</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35379</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52202</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>52771</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>142216</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>182475</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>179883</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>177594</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234677</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>232654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24685; 48360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37324; 67456</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40131; 69350</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>132636; 150953</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>165116; 198348</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>163000; 196887</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>154759; 200410</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>210761; 263305</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>208474; 259043</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15646</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31479</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25159</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>96725</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>132361</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>124358</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>112370</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>163841</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>149517</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9059; 24412</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19627; 44004</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16527; 37158</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86589; 104262</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>118197; 146040</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>110463; 136900</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95153; 130617</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>140174; 187278</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>128905; 170885</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41352</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58611</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144720</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>194046</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>152963</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>171781</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>235398</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>211573</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18598; 38918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28950; 55108</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46121; 72485</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>133128; 155241</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>179893; 207274</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>138054; 165703</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>151249; 192973</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>210279; 260355</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>187097; 233742</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>172865</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>169085</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>507414</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>625640</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>592873</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>614514</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>798505</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>761958</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87757; 128470</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>148641; 200744</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>145447; 194464</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>488369; 524803</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>594825; 651059</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>561515; 621681</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>574679; 654034</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>750687; 845000</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>718371; 813686</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>